--- a/PPA_auto/data/Bayes_comparison_Incomplete_Projects.xlsx
+++ b/PPA_auto/data/Bayes_comparison_Incomplete_Projects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukeh\Desktop\Git_repos\ADF-G_Nome\PPA_auto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhhenslee\Desktop\Git_repos\ADF-G_Nome\PPA_auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101F4298-7C67-4F49-B1C0-FEE95F048311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A362500B-7E5C-4742-B4FF-0568A50F0FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{CEB595FD-0E61-4F98-AEFC-6CA9830E47D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEB595FD-0E61-4F98-AEFC-6CA9830E47D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="27">
   <si>
     <t>Year</t>
   </si>
@@ -116,6 +116,9 @@
   <si>
     <t>Kwiniuk</t>
   </si>
+  <si>
+    <t>Kwiniuk pink added 3/25/2022</t>
+  </si>
 </sst>
 </file>
 
@@ -155,12 +158,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,7 +186,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -201,6 +210,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,14 +527,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54A06F9-B9EF-4CC7-9F56-9A8D1347941A}">
-  <dimension ref="A1:I476"/>
+  <dimension ref="A1:J532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K475" sqref="K475"/>
+      <pane ySplit="1" topLeftCell="A482" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D497" sqref="D497:D532"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -8246,7 +8256,7 @@
         <v>65023</v>
       </c>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:10">
       <c r="A449" s="1">
         <v>2020</v>
       </c>
@@ -8263,7 +8273,7 @@
         <v>14410</v>
       </c>
     </row>
-    <row r="450" spans="1:9">
+    <row r="450" spans="1:10">
       <c r="A450" s="1">
         <v>2010</v>
       </c>
@@ -8280,7 +8290,7 @@
         <v>5382</v>
       </c>
     </row>
-    <row r="451" spans="1:9">
+    <row r="451" spans="1:10">
       <c r="A451" s="1">
         <v>2011</v>
       </c>
@@ -8297,7 +8307,7 @@
         <v>10111</v>
       </c>
     </row>
-    <row r="452" spans="1:9">
+    <row r="452" spans="1:10">
       <c r="A452" s="1">
         <v>2012</v>
       </c>
@@ -8314,7 +8324,7 @@
         <v>15196</v>
       </c>
     </row>
-    <row r="453" spans="1:9">
+    <row r="453" spans="1:10">
       <c r="A453" s="1">
         <v>2013</v>
       </c>
@@ -8331,7 +8341,7 @@
         <v>25550</v>
       </c>
     </row>
-    <row r="454" spans="1:9">
+    <row r="454" spans="1:10">
       <c r="A454" s="1">
         <v>2014</v>
       </c>
@@ -8348,7 +8358,7 @@
         <v>44118</v>
       </c>
     </row>
-    <row r="455" spans="1:9">
+    <row r="455" spans="1:10">
       <c r="A455" s="1">
         <v>2015</v>
       </c>
@@ -8365,7 +8375,7 @@
         <v>40964</v>
       </c>
     </row>
-    <row r="456" spans="1:9">
+    <row r="456" spans="1:10">
       <c r="A456" s="1">
         <v>2016</v>
       </c>
@@ -8382,7 +8392,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:10">
       <c r="A457" s="1">
         <v>2017</v>
       </c>
@@ -8399,7 +8409,7 @@
         <v>17891</v>
       </c>
     </row>
-    <row r="458" spans="1:9">
+    <row r="458" spans="1:10">
       <c r="A458" s="1">
         <v>2018</v>
       </c>
@@ -8416,7 +8426,7 @@
         <v>58755</v>
       </c>
     </row>
-    <row r="459" spans="1:9">
+    <row r="459" spans="1:10">
       <c r="A459" s="1">
         <v>2019</v>
       </c>
@@ -8433,7 +8443,7 @@
         <v>10746</v>
       </c>
     </row>
-    <row r="460" spans="1:9">
+    <row r="460" spans="1:10">
       <c r="A460" s="1">
         <v>2020</v>
       </c>
@@ -8450,7 +8460,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="461" spans="1:9" s="8" customFormat="1">
+    <row r="461" spans="1:10" s="8" customFormat="1">
       <c r="A461" s="2">
         <v>1985</v>
       </c>
@@ -8463,14 +8473,17 @@
       <c r="D461" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E461" s="8">
+      <c r="E461" s="9">
         <v>18035</v>
       </c>
-      <c r="I461" s="8">
+      <c r="I461" s="9">
         <v>1134.3133499999999</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" s="8" customFormat="1">
+      <c r="J461" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" s="8" customFormat="1">
       <c r="A462" s="2">
         <v>1986</v>
       </c>
@@ -8483,14 +8496,14 @@
       <c r="D462" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E462" s="8">
+      <c r="E462" s="9">
         <v>191722</v>
       </c>
-      <c r="I462" s="8">
+      <c r="I462" s="9">
         <v>12746.599830057499</v>
       </c>
     </row>
-    <row r="463" spans="1:9" s="8" customFormat="1">
+    <row r="463" spans="1:10" s="8" customFormat="1">
       <c r="A463" s="2">
         <v>1987</v>
       </c>
@@ -8503,14 +8516,14 @@
       <c r="D463" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E463" s="8">
+      <c r="E463" s="9">
         <v>4966</v>
       </c>
-      <c r="I463" s="8">
+      <c r="I463" s="9">
         <v>510.242452774963</v>
       </c>
     </row>
-    <row r="464" spans="1:9" s="8" customFormat="1">
+    <row r="464" spans="1:10" s="8" customFormat="1">
       <c r="A464" s="2">
         <v>1988</v>
       </c>
@@ -8523,10 +8536,10 @@
       <c r="D464" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E464" s="8">
+      <c r="E464" s="9">
         <v>154488</v>
       </c>
-      <c r="I464" s="8">
+      <c r="I464" s="9">
         <v>12345.314309548199</v>
       </c>
     </row>
@@ -8543,10 +8556,10 @@
       <c r="D465" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E465">
+      <c r="E465" s="9">
         <v>22895</v>
       </c>
-      <c r="I465">
+      <c r="I465" s="9">
         <v>1236.55228650494</v>
       </c>
     </row>
@@ -8563,10 +8576,10 @@
       <c r="D466" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E466">
+      <c r="E466" s="9">
         <v>348560</v>
       </c>
-      <c r="I466">
+      <c r="I466" s="9">
         <v>21934.507385871901</v>
       </c>
     </row>
@@ -8583,10 +8596,10 @@
       <c r="D467" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E467">
+      <c r="E467" s="9">
         <v>48609</v>
       </c>
-      <c r="I467">
+      <c r="I467" s="9">
         <v>2783.4745660498802</v>
       </c>
     </row>
@@ -8603,10 +8616,10 @@
       <c r="D468" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E468">
+      <c r="E468" s="9">
         <v>819306</v>
       </c>
-      <c r="I468">
+      <c r="I468" s="9">
         <v>42569.203753832298</v>
       </c>
     </row>
@@ -8623,10 +8636,10 @@
       <c r="D469" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E469">
+      <c r="E469" s="9">
         <v>35732</v>
       </c>
-      <c r="I469">
+      <c r="I469" s="9">
         <v>2741.6387841045698</v>
       </c>
     </row>
@@ -8643,10 +8656,10 @@
       <c r="D470" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E470">
+      <c r="E470" s="9">
         <v>1649780</v>
       </c>
-      <c r="I470">
+      <c r="I470" s="9">
         <v>77730.041175747305</v>
       </c>
     </row>
@@ -8663,10 +8676,10 @@
       <c r="D471" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E471">
+      <c r="E471" s="9">
         <v>13486</v>
       </c>
-      <c r="I471">
+      <c r="I471" s="9">
         <v>1194.67059526969</v>
       </c>
     </row>
@@ -8683,10 +8696,10 @@
       <c r="D472" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E472">
+      <c r="E472" s="9">
         <v>774698</v>
       </c>
-      <c r="I472">
+      <c r="I472" s="9">
         <v>50553.132967084501</v>
       </c>
     </row>
@@ -8703,10 +8716,10 @@
       <c r="D473" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E473">
+      <c r="E473" s="9">
         <v>8292</v>
       </c>
-      <c r="I473">
+      <c r="I473" s="9">
         <v>947.76010000480903</v>
       </c>
     </row>
@@ -8723,10 +8736,10 @@
       <c r="D474" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E474">
+      <c r="E474" s="9">
         <v>555094</v>
       </c>
-      <c r="I474">
+      <c r="I474" s="9">
         <v>39369.7109164824</v>
       </c>
     </row>
@@ -8743,10 +8756,10 @@
       <c r="D475" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E475" s="8">
+      <c r="E475" s="9">
         <v>350</v>
       </c>
-      <c r="I475" s="8">
+      <c r="I475" s="9">
         <v>48.051592051889699</v>
       </c>
     </row>
@@ -8763,11 +8776,915 @@
       <c r="D476" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E476">
+      <c r="E476" s="9">
         <v>553486</v>
       </c>
-      <c r="I476">
+      <c r="I476" s="9">
         <v>30659.668553220701</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9">
+      <c r="A477" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E477" s="9">
+        <v>8286</v>
+      </c>
+      <c r="I477" s="9">
+        <v>360.85287396014797</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9">
+      <c r="A478" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E478" s="9">
+        <v>1114422</v>
+      </c>
+      <c r="I478" s="9">
+        <v>45536.291349448897</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9">
+      <c r="A479" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E479" s="9">
+        <v>7446</v>
+      </c>
+      <c r="I479" s="9">
+        <v>417.48214964060702</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9">
+      <c r="A480" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E480" s="9">
+        <v>1015413</v>
+      </c>
+      <c r="I480" s="9">
+        <v>39784.645086463999</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9">
+      <c r="A481" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E481" s="9">
+        <v>113633</v>
+      </c>
+      <c r="I481" s="9">
+        <v>6435.3878565377299</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9">
+      <c r="A482" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E482" s="9">
+        <v>18085</v>
+      </c>
+      <c r="I482" s="9">
+        <v>1004.06582150427</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9">
+      <c r="A483" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E483" s="9">
+        <v>18060</v>
+      </c>
+      <c r="I483" s="9">
+        <v>1004.05387002543</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9">
+      <c r="A484" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E484" s="9">
+        <v>1443831</v>
+      </c>
+      <c r="I484" s="9">
+        <v>60501.021634349301</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9">
+      <c r="A485" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E485" s="9">
+        <v>42960</v>
+      </c>
+      <c r="I485" s="9">
+        <v>2440.40335735383</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9">
+      <c r="A486" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E486" s="9">
+        <v>634169</v>
+      </c>
+      <c r="I486" s="9">
+        <v>33977.172531236203</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9">
+      <c r="A487" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E487" s="9">
+        <v>30909</v>
+      </c>
+      <c r="I487" s="9">
+        <v>1373.3798099999999</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9">
+      <c r="A488" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E488" s="9">
+        <v>130643</v>
+      </c>
+      <c r="I488" s="9">
+        <v>7024.2896234493001</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9">
+      <c r="A489" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E489" s="9">
+        <v>4404</v>
+      </c>
+      <c r="I489" s="9">
+        <v>261.30575128032302</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9">
+      <c r="A490" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E490" s="9">
+        <v>107605</v>
+      </c>
+      <c r="I490" s="9">
+        <v>4070.47478909963</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9">
+      <c r="A491" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E491" s="9">
+        <v>22430</v>
+      </c>
+      <c r="I491" s="9">
+        <v>1490.5142075466899</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9">
+      <c r="A492" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E492" s="9">
+        <v>636981</v>
+      </c>
+      <c r="I492" s="9">
+        <v>21585.479897558602</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9">
+      <c r="A493" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E493" s="9">
+        <v>506340</v>
+      </c>
+      <c r="I493" s="9">
+        <v>23666.906476637701</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9">
+      <c r="A494" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D494" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E494" s="9">
+        <v>1804752</v>
+      </c>
+      <c r="I494" s="9">
+        <v>47430.970751554101</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9">
+      <c r="A495" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E495" s="9">
+        <v>659769</v>
+      </c>
+      <c r="I495" s="9">
+        <v>26504.324841352201</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9">
+      <c r="A496" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E496" s="9">
+        <v>1767447</v>
+      </c>
+      <c r="I496" s="9">
+        <v>44518.258151791699</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="2">
+        <v>1985</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="2">
+        <v>1987</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D499" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="2">
+        <v>1988</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D500" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="2">
+        <v>1989</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D501" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="2">
+        <v>1990</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D502" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="2">
+        <v>1991</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D503" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="2">
+        <v>1992</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D504" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="2">
+        <v>1993</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D505" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="2">
+        <v>1996</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D509" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D511" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D525" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D527" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D528" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D530" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D531" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D532" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
